--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Placas</t>
   </si>
@@ -36,33 +36,6 @@
   </si>
   <si>
     <t>Hora de Agregado</t>
-  </si>
-  <si>
-    <t>STU901</t>
-  </si>
-  <si>
-    <t>14/09/2024</t>
-  </si>
-  <si>
-    <t>Combustible</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>En viaje</t>
-  </si>
-  <si>
-    <t>01:22:47</t>
-  </si>
-  <si>
-    <t>VWX234</t>
-  </si>
-  <si>
-    <t>1 hora</t>
-  </si>
-  <si>
-    <t>05:35:09</t>
   </si>
 </sst>
 </file>
@@ -107,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -139,58 +112,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Placas</t>
   </si>
@@ -36,6 +36,24 @@
   </si>
   <si>
     <t>Hora de Agregado</t>
+  </si>
+  <si>
+    <t>YZA567</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>En viaje</t>
+  </si>
+  <si>
+    <t>11:35:25</t>
   </si>
 </sst>
 </file>
@@ -80,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -112,6 +130,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Placas</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>11:35:25</t>
+  </si>
+  <si>
+    <t>VWX234</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>15:10:59</t>
+  </si>
+  <si>
+    <t>15:11:07</t>
   </si>
 </sst>
 </file>
@@ -98,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,6 +171,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Placas</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>15:11:07</t>
+  </si>
+  <si>
+    <t>12/10/2024</t>
+  </si>
+  <si>
+    <t>11:11:56</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -223,6 +229,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Placas</t>
   </si>
@@ -41,7 +41,7 @@
     <t>YZA567</t>
   </si>
   <si>
-    <t>10/10/2024</t>
+    <t>11/10/2024</t>
   </si>
   <si>
     <t>Mantenimiento</t>
@@ -53,25 +53,16 @@
     <t>En viaje</t>
   </si>
   <si>
-    <t>11:35:25</t>
+    <t>15:11:07</t>
   </si>
   <si>
     <t>VWX234</t>
   </si>
   <si>
-    <t>11/10/2024</t>
+    <t>12/10/2024</t>
   </si>
   <si>
     <t>Funcional</t>
-  </si>
-  <si>
-    <t>15:10:59</t>
-  </si>
-  <si>
-    <t>15:11:07</t>
-  </si>
-  <si>
-    <t>12/10/2024</t>
   </si>
   <si>
     <t>11:11:56</t>
@@ -119,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -203,58 +194,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Placas</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Hora de Agregado</t>
   </si>
   <si>
-    <t>YZA567</t>
-  </si>
-  <si>
-    <t>11/10/2024</t>
+    <t>VWX234</t>
+  </si>
+  <si>
+    <t>12/10/2024</t>
   </si>
   <si>
     <t>Mantenimiento</t>
@@ -50,22 +50,25 @@
     <t/>
   </si>
   <si>
-    <t>En viaje</t>
-  </si>
-  <si>
-    <t>15:11:07</t>
-  </si>
-  <si>
-    <t>VWX234</t>
-  </si>
-  <si>
-    <t>12/10/2024</t>
-  </si>
-  <si>
     <t>Funcional</t>
   </si>
   <si>
     <t>11:11:56</t>
+  </si>
+  <si>
+    <t>DEF567</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>Combustible</t>
+  </si>
+  <si>
+    <t>FUNCIONAL</t>
+  </si>
+  <si>
+    <t>09:14:59</t>
   </si>
 </sst>
 </file>
@@ -176,22 +179,22 @@
         <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>12.0</v>
+        <v>144.0</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F35414-7DF2-4D1B-A7AE-DC69CF5B5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F77D1B5-03D1-4819-91DA-BA2BF16DAF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="R6" sqref="R6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Placas</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>13:54:56</t>
+  </si>
+  <si>
+    <t>FLP8701</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>10:47:03</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -197,6 +206,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
+++ b/ProyectoPooDist/excels/CAMIONESFACTURA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Placas</t>
   </si>
@@ -78,6 +78,36 @@
   </si>
   <si>
     <t>10:47:03</t>
+  </si>
+  <si>
+    <t>ORB234</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>03:37:34</t>
+  </si>
+  <si>
+    <t>03:38:26</t>
+  </si>
+  <si>
+    <t>No Especificado</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>03:38:55</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>03:44:57</t>
   </si>
 </sst>
 </file>
@@ -122,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -232,6 +262,110 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
